--- a/data/trans_camb/P23_10_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_10_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,04</t>
+          <t>-5,01; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 6,24</t>
+          <t>-4,58; 6,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,09</t>
+          <t>-5,67; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,72; -1,47</t>
+          <t>-3,06; 11,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 3,82</t>
+          <t>-5,73; 8,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 4,47</t>
+          <t>-10,24; -1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 0,45</t>
+          <t>-5,92; 3,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,97</t>
+          <t>-8,18; 3,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 4,03</t>
+          <t>-7,4; 1,8</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 1,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 0,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 3,26</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 2,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 4,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 3,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,98%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>-21,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,34%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,26%</t>
+          <t>-75,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,01%</t>
+          <t>-18,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-38,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>-46,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-58,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-47,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,89%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-31,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,32; 331,91</t>
+          <t>-74,45; 286,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,13; 344,79</t>
+          <t>-75,19; 307,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,91; 399,89</t>
+          <t>-100,0; 321,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-95,9; -15,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,45; 117,06</t>
+          <t>-74,04; 353,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 127,74</t>
+          <t>-100,0; -17,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 17,83</t>
+          <t>-66,61; 111,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,15; 74,51</t>
+          <t>-86,98; 166,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 102,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-80,18; 11,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-57,37; 91,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-74,5; 79,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-68,57; 244,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-71,53; 128,34</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 10,54</t>
+          <t>-1,64; 13,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 5,5</t>
+          <t>-2,48; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 8,86</t>
+          <t>-4,27; 2,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,51</t>
+          <t>3,82; 18,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,12</t>
+          <t>-1,08; 15,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 1,58</t>
+          <t>-5,55; 2,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,81</t>
+          <t>-5,75; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,28</t>
+          <t>-5,45; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,11</t>
+          <t>-1,82; 8,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 8,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 6,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 3,35</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 1,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 11,4</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 10,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>101,31%</t>
+          <t>102,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>55,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>123,01%</t>
+          <t>-13,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,38%</t>
+          <t>397,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,73%</t>
+          <t>110,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>-26,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>66,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>141,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-16,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>208,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>118,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 1019,23</t>
+          <t>-54,46; 1105,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 495,36</t>
+          <t>-54,09; 489,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 843,36</t>
+          <t>-84,87; 241,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,37; 155,59</t>
+          <t>65,45; 1903,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,87; 153,03</t>
+          <t>-22,77; 469,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,07; 106,24</t>
+          <t>-80,07; 142,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 199,88</t>
+          <t>-83,96; 151,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 144,99</t>
+          <t>-78,25; 127,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 172,41</t>
+          <t>-43,08; 555,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 915,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-44,15; 306,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-51,27; 147,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-65,51; 91,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>53,63; 526,54</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 396,1</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,14</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 0,81</t>
+          <t>-12,03; 3,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 0,04</t>
+          <t>-12,11; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -1,25</t>
+          <t>-13,94; -0,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,35</t>
+          <t>1,76; 13,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,1</t>
+          <t>0,93; 13,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,59</t>
+          <t>-3,47; 2,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 0,25</t>
+          <t>-4,32; 1,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; -0,52</t>
+          <t>-2,11; 4,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 2,45</t>
+          <t>-0,0; 9,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 6,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 1,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 0,11</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 0,66</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 9,86</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 8,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-51,19%</t>
+          <t>-40,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,14%</t>
+          <t>-36,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,59%</t>
+          <t>-53,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>136,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-34,14%</t>
+          <t>122,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>119,55%</t>
+          <t>-13,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-36,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-44,3%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,02%</t>
+          <t>79,77%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-32,98%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-36,08%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-30,09%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>109,41%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>55,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 25,28</t>
+          <t>-74,23; 53,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,3; 2,22</t>
+          <t>-71,17; 18,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,33; -9,59</t>
+          <t>-80,68; -5,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 115,48</t>
+          <t>21,19; 383,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 48,95</t>
+          <t>4,18; 337,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 358,17</t>
+          <t>-62,38; 115,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,11; 9,61</t>
+          <t>-75,05; 43,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,11; -6,43</t>
+          <t>-38,12; 209,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-59,39; 40,6</t>
+          <t>-8,68; 269,4</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-43,29; 99,28</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-67,51; 24,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-65,14; 1,53</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-62,59; 12,83</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>30,01; 238,93</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 147,03</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,34</t>
+          <t>-3,47; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,0</t>
+          <t>-3,46; 4,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,48</t>
+          <t>-3,13; 11,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,93</t>
+          <t>-2,37; 14,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,55</t>
+          <t>-3,14; 12,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 7,84</t>
+          <t>-7,7; 0,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 1,47</t>
+          <t>-7,02; 1,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,98</t>
+          <t>-7,06; 2,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,92</t>
+          <t>-1,4; 8,86</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 5,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 1,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 1,94</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 4,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 9,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,07</t>
         </is>
       </c>
     </row>
@@ -1391,42 +1859,72 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,22%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-31,05%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>-33,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>-23,18%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>43,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-16,39%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-11,44%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>63,37%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 106,95</t>
+          <t>-37,97; 108,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 103,11</t>
+          <t>-37,84; 106,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 200,35</t>
+          <t>-40,55; 228,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 12,98</t>
+          <t>-27,06; 253,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 33,72</t>
+          <t>-25,55; 139,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 104,28</t>
+          <t>-57,95; 16,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 20,36</t>
+          <t>-52,79; 21,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 28,14</t>
+          <t>-54,48; 31,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 95,62</t>
+          <t>-17,42; 140,24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-38,64; 68,92</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 25,47</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 27,2</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-41,09; 54,36</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 156,21</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 60,53</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7,46</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 0,33</t>
+          <t>-10,73; 0,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 2,13</t>
+          <t>-8,98; 2,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 11,64</t>
+          <t>-6,53; 4,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,58</t>
+          <t>1,33; 15,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,12</t>
+          <t>-5,12; 10,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 6,17</t>
+          <t>-6,63; 4,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,9</t>
+          <t>-8,77; 2,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,78</t>
+          <t>-5,22; 6,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 7,11</t>
+          <t>-0,21; 13,33</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 14,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 1,18</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 1,24</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 4,1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 13,04</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 10,03</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-47,15%</t>
+          <t>-46,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>-7,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>107,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-31,25%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-28,99%</t>
+          <t>-27,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-29,41%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>67,29%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>66,59%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-27,53%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-25,56%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>84,79%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>41,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,65; 10,19</t>
+          <t>-77,36; 21,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,02; 48,81</t>
+          <t>-68,35; 56,65</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 216,24</t>
+          <t>-57,46; 98,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,9; 72,73</t>
+          <t>9,74; 303,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 35,06</t>
+          <t>-30,03; 111,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 92,98</t>
+          <t>-53,84; 70,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 16,16</t>
+          <t>-65,63; 41,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-60,23; 13,43</t>
+          <t>-48,85; 111,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 105,16</t>
+          <t>-3,2; 214,29</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 204,81</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-56,94; 23,31</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-55,41; 20,51</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-40,03; 63,54</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 188,26</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 106,77</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-6,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 10,18</t>
+          <t>-0,59; 10,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 8,46</t>
+          <t>-1,55; 9,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 13,34</t>
+          <t>-1,89; 10,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 0,57</t>
+          <t>-6,3; 8,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,65; -1,3</t>
+          <t>-9,62; 5,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 15,6</t>
+          <t>-12,07; 0,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,77</t>
+          <t>-13,87; -2,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,2</t>
+          <t>-5,62; 8,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,93; 12,95</t>
+          <t>-3,73; 12,55</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 10,34</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 3,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 1,24</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 7,42</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 8,59</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 5,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>73,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>123,61%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-47,39%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-70,73%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>-51,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>-71,79%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>81,36%</t>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-29,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>33,72%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 360,76</t>
+          <t>-16,7; 359,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 288,94</t>
+          <t>-27,65; 291,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 419,15</t>
+          <t>-33,28; 361,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-80,13; 16,76</t>
+          <t>-50,08; 142,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-91,13; -11,89</t>
+          <t>-60,16; 63,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 251,78</t>
+          <t>-81,08; 17,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 72,2</t>
+          <t>-90,47; -10,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 24,04</t>
+          <t>-45,53; 147,56</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>5,55; 238,26</t>
+          <t>-24,94; 173,77</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-43,62; 133,09</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-51,18; 58,91</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-64,63; 26,53</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-30,56; 127,34</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-20,18; 109,74</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-40,42; 59,8</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 1,78</t>
+          <t>-2,65; 2,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,6</t>
+          <t>-2,5; 2,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,09</t>
+          <t>-3,21; 1,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -1,0</t>
+          <t>3,31; 9,3</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,65</t>
+          <t>0,69; 6,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,55</t>
+          <t>-4,6; -0,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -0,16</t>
+          <t>-4,81; -0,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,19</t>
+          <t>-2,44; 2,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,69</t>
+          <t>0,88; 5,94</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 4,15</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 0,11</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; -0,13</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 1,32</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 6,89</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 4,63</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-36,06%</t>
+          <t>102,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-36,66%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>-36,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>49,01%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-20,85%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-20,66%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>73,16%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>27,83%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 31,83</t>
+          <t>-33,38; 40,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 27,25</t>
+          <t>-30,17; 35,53</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 68,71</t>
+          <t>-40,43; 32,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-53,83; -15,89</t>
+          <t>39,52; 189,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-51,32; -8,94</t>
+          <t>6,75; 86,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 72,17</t>
+          <t>-52,29; -12,87</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-41,95; -2,5</t>
+          <t>-53,74; -13,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-39,1; -2,64</t>
+          <t>-28,75; 31,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 59,06</t>
+          <t>8,59; 95,68</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-14,83; 51,4</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-37,04; 3,25</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; -1,95</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 20,05</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>38,33; 113,11</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 54,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
